--- a/Excel reports consolidation/Daily Reports/Coffee Shop 3.xlsx
+++ b/Excel reports consolidation/Daily Reports/Coffee Shop 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calin.grigorescu\Documents\UiPath\ExcelConsolidation\Daily Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c12b539f5863eb1/Documentos/UiPath/Automation-Developer-Professional-Training/Excel reports consolidation/Daily Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B0B4CA-5069-4EBC-B2E6-612B84431243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{19B0B4CA-5069-4EBC-B2E6-612B84431243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85834349-EB56-412E-83DB-F3B51F86AC24}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8640" yWindow="1875" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel reports consolidation/Daily Reports/Coffee Shop 3.xlsx
+++ b/Excel reports consolidation/Daily Reports/Coffee Shop 3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6c12b539f5863eb1/Documentos/UiPath/Automation-Developer-Professional-Training/Excel reports consolidation/Daily Reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{19B0B4CA-5069-4EBC-B2E6-612B84431243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85834349-EB56-412E-83DB-F3B51F86AC24}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{19B0B4CA-5069-4EBC-B2E6-612B84431243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31580633-E725-42A3-9C65-6AB2B2819FB9}"/>
   <bookViews>
     <workbookView xWindow="8640" yWindow="1875" windowWidth="28800" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
